--- a/Excel/Mapper Sheet (Grouped).xlsx
+++ b/Excel/Mapper Sheet (Grouped).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Aqua Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\FYP_Aabi Zaraat.ai\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885B035E-33F2-4C58-91AF-193A63A502C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1677FEC7-35F5-442D-9BC7-E814ED1C88F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t xml:space="preserve">Fish </t>
   </si>
@@ -126,9 +126,6 @@
     <t>Dilwar Fish</t>
   </si>
   <si>
-    <t>Remaining Fish</t>
-  </si>
-  <si>
     <t>Nysa Fish</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Kitefish, King Firefish, Green Severum, Diamond Carp, Tetrafamily, Red Tetrastick, Mono Angel, Silver Carp Fish, Jalebi Poplet Fish, Zandia Fish, Poplet Fish, Dilwar Fish, Nysa Fish, Sapphy Fish</t>
   </si>
   <si>
-    <t>Black Ghost Knifefish, Carp, Cichlid Koi, Skatefish, Red Jewel, Pirate Fish, Dhari Fish, Rahu Fish, Takkan Fish, Remaining Fish, Moe Fish, Serum Fish</t>
-  </si>
-  <si>
     <t>Saline Total</t>
   </si>
   <si>
@@ -181,6 +175,9 @@
   </si>
   <si>
     <t>Mixture Total</t>
+  </si>
+  <si>
+    <t>Black Ghost Knifefish, Carp, Cichlid Koi, Skatefish, Red Jewel, Pirate Fish, Dhari Fish, Rahu Fish, Takkan Fish, Moe Fish, Serum Fish</t>
   </si>
 </sst>
 </file>
@@ -677,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,13 +705,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,13 +719,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -736,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,7 +755,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -766,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,7 +771,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -782,7 +779,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,7 +787,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,7 +795,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -806,7 +803,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -814,23 +811,23 @@
         <v>32</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -838,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -846,7 +843,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -854,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -862,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +867,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +875,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +891,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +899,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,159 +915,151 @@
         <v>31</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
+      <c r="A30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>42</v>
+      <c r="B40" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="13">
+        <f>COUNTIF(B30:B40,"Saline")</f>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="13">
-        <f>COUNTIF(B31:B41,"Saline")</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="14">
+      <c r="A43" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="14">
         <f>COUNTIF(B2:B15,"Alkaline")</f>
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="15">
-        <f>COUNTIF(B16:B30,"Mixture")</f>
-        <v>15</v>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="15">
+        <f>COUNTIF(B16:B29,"Mixture")</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B41">
-    <sortCondition ref="B2:B41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B40">
+    <sortCondition ref="B2:B40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
